--- a/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Col9a3-Mag.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Col9a3-Mag.xlsx
@@ -540,16 +540,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>1.089714666666667</v>
+        <v>1.345040666666667</v>
       </c>
       <c r="H2">
-        <v>3.269144</v>
+        <v>4.035122</v>
       </c>
       <c r="I2">
-        <v>0.3021103264967364</v>
+        <v>0.2185308326579933</v>
       </c>
       <c r="J2">
-        <v>0.3021103264967364</v>
+        <v>0.2185308326579933</v>
       </c>
       <c r="K2">
         <v>1</v>
@@ -564,22 +564,22 @@
         <v>0.183918</v>
       </c>
       <c r="O2">
-        <v>0.1297580344745843</v>
+        <v>0.05546670559109387</v>
       </c>
       <c r="P2">
-        <v>0.1297580344745843</v>
+        <v>0.05546670559109387</v>
       </c>
       <c r="Q2">
-        <v>0.06680604735466668</v>
+        <v>0.08245906311066667</v>
       </c>
       <c r="R2">
-        <v>0.6012544261920001</v>
+        <v>0.742131567996</v>
       </c>
       <c r="S2">
-        <v>0.03920124216069144</v>
+        <v>0.01212118535761752</v>
       </c>
       <c r="T2">
-        <v>0.03920124216069144</v>
+        <v>0.01212118535761752</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -602,16 +602,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>1.089714666666667</v>
+        <v>1.345040666666667</v>
       </c>
       <c r="H3">
-        <v>3.269144</v>
+        <v>4.035122</v>
       </c>
       <c r="I3">
-        <v>0.3021103264967364</v>
+        <v>0.2185308326579933</v>
       </c>
       <c r="J3">
-        <v>0.3021103264967364</v>
+        <v>0.2185308326579933</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,28 +620,28 @@
         <v>1</v>
       </c>
       <c r="M3">
-        <v>0.2837853333333334</v>
+        <v>0.5397903333333334</v>
       </c>
       <c r="N3">
-        <v>0.8513560000000001</v>
+        <v>1.619371</v>
       </c>
       <c r="O3">
-        <v>0.6006496438529355</v>
+        <v>0.488376202980433</v>
       </c>
       <c r="P3">
-        <v>0.6006496438529356</v>
+        <v>0.4883762029804329</v>
       </c>
       <c r="Q3">
-        <v>0.3092450399182223</v>
+        <v>0.726039949806889</v>
       </c>
       <c r="R3">
-        <v>2.783205359264</v>
+        <v>6.534359548262001</v>
       </c>
       <c r="S3">
-        <v>0.1814624600145588</v>
+        <v>0.1067252582876632</v>
       </c>
       <c r="T3">
-        <v>0.1814624600145588</v>
+        <v>0.1067252582876632</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -664,46 +664,46 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>1.089714666666667</v>
+        <v>1.345040666666667</v>
       </c>
       <c r="H4">
-        <v>3.269144</v>
+        <v>4.035122</v>
       </c>
       <c r="I4">
-        <v>0.3021103264967364</v>
+        <v>0.2185308326579933</v>
       </c>
       <c r="J4">
-        <v>0.3021103264967364</v>
+        <v>0.2185308326579933</v>
       </c>
       <c r="K4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L4">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M4">
-        <v>0.026484</v>
+        <v>0.005069</v>
       </c>
       <c r="N4">
-        <v>0.07945200000000001</v>
+        <v>0.015207</v>
       </c>
       <c r="O4">
-        <v>0.05605506451285177</v>
+        <v>0.004586186191257867</v>
       </c>
       <c r="P4">
-        <v>0.05605506451285178</v>
+        <v>0.004586186191257867</v>
       </c>
       <c r="Q4">
-        <v>0.02886000323200001</v>
+        <v>0.006818011139333334</v>
       </c>
       <c r="R4">
-        <v>0.259740029088</v>
+        <v>0.061362100254</v>
       </c>
       <c r="S4">
-        <v>0.01693481384177327</v>
+        <v>0.001002223087100173</v>
       </c>
       <c r="T4">
-        <v>0.01693481384177327</v>
+        <v>0.001002223087100173</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,46 +726,46 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>1.089714666666667</v>
+        <v>1.345040666666667</v>
       </c>
       <c r="H5">
-        <v>3.269144</v>
+        <v>4.035122</v>
       </c>
       <c r="I5">
-        <v>0.3021103264967364</v>
+        <v>0.2185308326579933</v>
       </c>
       <c r="J5">
-        <v>0.3021103264967364</v>
+        <v>0.2185308326579933</v>
       </c>
       <c r="K5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L5">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M5">
-        <v>0.1008886666666667</v>
+        <v>0.4991103333333333</v>
       </c>
       <c r="N5">
-        <v>0.302666</v>
+        <v>1.497331</v>
       </c>
       <c r="O5">
-        <v>0.2135372571596283</v>
+        <v>0.4515709052372154</v>
       </c>
       <c r="P5">
-        <v>0.2135372571596284</v>
+        <v>0.4515709052372153</v>
       </c>
       <c r="Q5">
-        <v>0.1099398597671111</v>
+        <v>0.671323695486889</v>
       </c>
       <c r="R5">
-        <v>0.9894587379040001</v>
+        <v>6.041913259382</v>
       </c>
       <c r="S5">
-        <v>0.06451181047971288</v>
+        <v>0.09868216592561246</v>
       </c>
       <c r="T5">
-        <v>0.0645118104797129</v>
+        <v>0.09868216592561245</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -794,10 +794,10 @@
         <v>3.170644</v>
       </c>
       <c r="I6">
-        <v>0.293007678476359</v>
+        <v>0.1717131411100012</v>
       </c>
       <c r="J6">
-        <v>0.2930076784763591</v>
+        <v>0.1717131411100013</v>
       </c>
       <c r="K6">
         <v>1</v>
@@ -812,10 +812,10 @@
         <v>0.183918</v>
       </c>
       <c r="O6">
-        <v>0.1297580344745843</v>
+        <v>0.05546670559109387</v>
       </c>
       <c r="P6">
-        <v>0.1297580344745843</v>
+        <v>0.05546670559109387</v>
       </c>
       <c r="Q6">
         <v>0.06479316702133334</v>
@@ -824,10 +824,10 @@
         <v>0.583138503192</v>
       </c>
       <c r="S6">
-        <v>0.0380201004450533</v>
+        <v>0.009524362244070397</v>
       </c>
       <c r="T6">
-        <v>0.03802010044505331</v>
+        <v>0.009524362244070397</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -856,10 +856,10 @@
         <v>3.170644</v>
       </c>
       <c r="I7">
-        <v>0.293007678476359</v>
+        <v>0.1717131411100012</v>
       </c>
       <c r="J7">
-        <v>0.2930076784763591</v>
+        <v>0.1717131411100013</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,28 +868,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>0.2837853333333334</v>
+        <v>0.5397903333333334</v>
       </c>
       <c r="N7">
-        <v>0.8513560000000001</v>
+        <v>1.619371</v>
       </c>
       <c r="O7">
-        <v>0.6006496438529355</v>
+        <v>0.488376202980433</v>
       </c>
       <c r="P7">
-        <v>0.6006496438529356</v>
+        <v>0.4883762029804329</v>
       </c>
       <c r="Q7">
-        <v>0.2999274214737778</v>
+        <v>0.5704943272137778</v>
       </c>
       <c r="R7">
-        <v>2.699346793264001</v>
+        <v>5.134448944924001</v>
       </c>
       <c r="S7">
-        <v>0.1759949577230005</v>
+        <v>0.08386061185714572</v>
       </c>
       <c r="T7">
-        <v>0.1759949577230005</v>
+        <v>0.0838606118571457</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -918,40 +918,40 @@
         <v>3.170644</v>
       </c>
       <c r="I8">
-        <v>0.293007678476359</v>
+        <v>0.1717131411100012</v>
       </c>
       <c r="J8">
-        <v>0.2930076784763591</v>
+        <v>0.1717131411100013</v>
       </c>
       <c r="K8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L8">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M8">
-        <v>0.026484</v>
+        <v>0.005069</v>
       </c>
       <c r="N8">
-        <v>0.07945200000000001</v>
+        <v>0.015207</v>
       </c>
       <c r="O8">
-        <v>0.05605506451285177</v>
+        <v>0.004586186191257867</v>
       </c>
       <c r="P8">
-        <v>0.05605506451285178</v>
+        <v>0.004586186191257867</v>
       </c>
       <c r="Q8">
-        <v>0.02799044523200001</v>
+        <v>0.005357331478666666</v>
       </c>
       <c r="R8">
-        <v>0.251914007088</v>
+        <v>0.048215983308</v>
       </c>
       <c r="S8">
-        <v>0.01642456431975323</v>
+        <v>0.0007875084366162013</v>
       </c>
       <c r="T8">
-        <v>0.01642456431975324</v>
+        <v>0.0007875084366162014</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -980,40 +980,40 @@
         <v>3.170644</v>
       </c>
       <c r="I9">
-        <v>0.293007678476359</v>
+        <v>0.1717131411100012</v>
       </c>
       <c r="J9">
-        <v>0.2930076784763591</v>
+        <v>0.1717131411100013</v>
       </c>
       <c r="K9">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L9">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M9">
-        <v>0.1008886666666667</v>
+        <v>0.4991103333333333</v>
       </c>
       <c r="N9">
-        <v>0.302666</v>
+        <v>1.497331</v>
       </c>
       <c r="O9">
-        <v>0.2135372571596283</v>
+        <v>0.4515709052372154</v>
       </c>
       <c r="P9">
-        <v>0.2135372571596284</v>
+        <v>0.4515709052372153</v>
       </c>
       <c r="Q9">
-        <v>0.1066273485448889</v>
+        <v>0.5275003945737777</v>
       </c>
       <c r="R9">
-        <v>0.959646136904</v>
+        <v>4.747503551164001</v>
       </c>
       <c r="S9">
-        <v>0.06256805598855197</v>
+        <v>0.07754065857216896</v>
       </c>
       <c r="T9">
-        <v>0.06256805598855199</v>
+        <v>0.07754065857216896</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1036,16 +1036,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>0.7149866666666668</v>
+        <v>2.512500666666666</v>
       </c>
       <c r="H10">
-        <v>2.14496</v>
+        <v>7.537502</v>
       </c>
       <c r="I10">
-        <v>0.1982214811958237</v>
+        <v>0.4082098603762884</v>
       </c>
       <c r="J10">
-        <v>0.1982214811958236</v>
+        <v>0.4082098603762884</v>
       </c>
       <c r="K10">
         <v>1</v>
@@ -1060,22 +1060,22 @@
         <v>0.183918</v>
       </c>
       <c r="O10">
-        <v>0.1297580344745843</v>
+        <v>0.05546670559109387</v>
       </c>
       <c r="P10">
-        <v>0.1297580344745843</v>
+        <v>0.05546670559109387</v>
       </c>
       <c r="Q10">
-        <v>0.04383297258666667</v>
+        <v>0.1540313658706667</v>
       </c>
       <c r="R10">
-        <v>0.3944967532800001</v>
+        <v>1.386282292836</v>
       </c>
       <c r="S10">
-        <v>0.02572082979061085</v>
+        <v>0.02264205614487312</v>
       </c>
       <c r="T10">
-        <v>0.02572082979061085</v>
+        <v>0.02264205614487312</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1098,16 +1098,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>0.7149866666666668</v>
+        <v>2.512500666666666</v>
       </c>
       <c r="H11">
-        <v>2.14496</v>
+        <v>7.537502</v>
       </c>
       <c r="I11">
-        <v>0.1982214811958237</v>
+        <v>0.4082098603762884</v>
       </c>
       <c r="J11">
-        <v>0.1982214811958236</v>
+        <v>0.4082098603762884</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1116,28 +1116,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>0.2837853333333334</v>
+        <v>0.5397903333333334</v>
       </c>
       <c r="N11">
-        <v>0.8513560000000001</v>
+        <v>1.619371</v>
       </c>
       <c r="O11">
-        <v>0.6006496438529355</v>
+        <v>0.488376202980433</v>
       </c>
       <c r="P11">
-        <v>0.6006496438529356</v>
+        <v>0.4883762029804329</v>
       </c>
       <c r="Q11">
-        <v>0.202902729528889</v>
+        <v>1.356223572360222</v>
       </c>
       <c r="R11">
-        <v>1.82612456576</v>
+        <v>12.206012151242</v>
       </c>
       <c r="S11">
-        <v>0.1190616620842728</v>
+        <v>0.1993599816297444</v>
       </c>
       <c r="T11">
-        <v>0.1190616620842729</v>
+        <v>0.1993599816297444</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1160,46 +1160,46 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>0.7149866666666668</v>
+        <v>2.512500666666666</v>
       </c>
       <c r="H12">
-        <v>2.14496</v>
+        <v>7.537502</v>
       </c>
       <c r="I12">
-        <v>0.1982214811958237</v>
+        <v>0.4082098603762884</v>
       </c>
       <c r="J12">
-        <v>0.1982214811958236</v>
+        <v>0.4082098603762884</v>
       </c>
       <c r="K12">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L12">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M12">
-        <v>0.026484</v>
+        <v>0.005069</v>
       </c>
       <c r="N12">
-        <v>0.07945200000000001</v>
+        <v>0.015207</v>
       </c>
       <c r="O12">
-        <v>0.05605506451285177</v>
+        <v>0.004586186191257867</v>
       </c>
       <c r="P12">
-        <v>0.05605506451285178</v>
+        <v>0.004586186191257867</v>
       </c>
       <c r="Q12">
-        <v>0.01893570688000001</v>
+        <v>0.01273586587933333</v>
       </c>
       <c r="R12">
-        <v>0.17042136192</v>
+        <v>0.114622792914</v>
       </c>
       <c r="S12">
-        <v>0.01111131791626493</v>
+        <v>0.001872126424793036</v>
       </c>
       <c r="T12">
-        <v>0.01111131791626493</v>
+        <v>0.001872126424793036</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1222,46 +1222,46 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>0.7149866666666668</v>
+        <v>2.512500666666666</v>
       </c>
       <c r="H13">
-        <v>2.14496</v>
+        <v>7.537502</v>
       </c>
       <c r="I13">
-        <v>0.1982214811958237</v>
+        <v>0.4082098603762884</v>
       </c>
       <c r="J13">
-        <v>0.1982214811958236</v>
+        <v>0.4082098603762884</v>
       </c>
       <c r="K13">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L13">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M13">
-        <v>0.1008886666666667</v>
+        <v>0.4991103333333333</v>
       </c>
       <c r="N13">
-        <v>0.302666</v>
+        <v>1.497331</v>
       </c>
       <c r="O13">
-        <v>0.2135372571596283</v>
+        <v>0.4515709052372154</v>
       </c>
       <c r="P13">
-        <v>0.2135372571596284</v>
+        <v>0.4515709052372153</v>
       </c>
       <c r="Q13">
-        <v>0.07213405148444446</v>
+        <v>1.254015045240222</v>
       </c>
       <c r="R13">
-        <v>0.64920646336</v>
+        <v>11.286135407162</v>
       </c>
       <c r="S13">
-        <v>0.04232767140467503</v>
+        <v>0.1843356961768778</v>
       </c>
       <c r="T13">
-        <v>0.04232767140467503</v>
+        <v>0.1843356961768778</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1278,22 +1278,22 @@
         <v>21</v>
       </c>
       <c r="E14">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F14">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G14">
-        <v>0.196207</v>
+        <v>0.3216003333333333</v>
       </c>
       <c r="H14">
-        <v>0.5886209999999999</v>
+        <v>0.9648009999999999</v>
       </c>
       <c r="I14">
-        <v>0.05439603837972126</v>
+        <v>0.0522509024211076</v>
       </c>
       <c r="J14">
-        <v>0.05439603837972125</v>
+        <v>0.0522509024211076</v>
       </c>
       <c r="K14">
         <v>1</v>
@@ -1308,22 +1308,22 @@
         <v>0.183918</v>
       </c>
       <c r="O14">
-        <v>0.1297580344745843</v>
+        <v>0.05546670559109387</v>
       </c>
       <c r="P14">
-        <v>0.1297580344745843</v>
+        <v>0.05546670559109387</v>
       </c>
       <c r="Q14">
-        <v>0.012028666342</v>
+        <v>0.01971603003533333</v>
       </c>
       <c r="R14">
-        <v>0.108257997078</v>
+        <v>0.177444270318</v>
       </c>
       <c r="S14">
-        <v>0.00705832302335668</v>
+        <v>0.002898185421460549</v>
       </c>
       <c r="T14">
-        <v>0.007058323023356681</v>
+        <v>0.002898185421460549</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1340,22 +1340,22 @@
         <v>22</v>
       </c>
       <c r="E15">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F15">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G15">
-        <v>0.196207</v>
+        <v>0.3216003333333333</v>
       </c>
       <c r="H15">
-        <v>0.5886209999999999</v>
+        <v>0.9648009999999999</v>
       </c>
       <c r="I15">
-        <v>0.05439603837972126</v>
+        <v>0.0522509024211076</v>
       </c>
       <c r="J15">
-        <v>0.05439603837972125</v>
+        <v>0.0522509024211076</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1364,28 +1364,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>0.2837853333333334</v>
+        <v>0.5397903333333334</v>
       </c>
       <c r="N15">
-        <v>0.8513560000000001</v>
+        <v>1.619371</v>
       </c>
       <c r="O15">
-        <v>0.6006496438529355</v>
+        <v>0.488376202980433</v>
       </c>
       <c r="P15">
-        <v>0.6006496438529356</v>
+        <v>0.4883762029804329</v>
       </c>
       <c r="Q15">
-        <v>0.05568066889733334</v>
+        <v>0.1735967511301111</v>
       </c>
       <c r="R15">
-        <v>0.501126020076</v>
+        <v>1.562370760171</v>
       </c>
       <c r="S15">
-        <v>0.03267296107979018</v>
+        <v>0.02551809732672165</v>
       </c>
       <c r="T15">
-        <v>0.03267296107979018</v>
+        <v>0.02551809732672164</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1402,52 +1402,52 @@
         <v>23</v>
       </c>
       <c r="E16">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F16">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G16">
-        <v>0.196207</v>
+        <v>0.3216003333333333</v>
       </c>
       <c r="H16">
-        <v>0.5886209999999999</v>
+        <v>0.9648009999999999</v>
       </c>
       <c r="I16">
-        <v>0.05439603837972126</v>
+        <v>0.0522509024211076</v>
       </c>
       <c r="J16">
-        <v>0.05439603837972125</v>
+        <v>0.0522509024211076</v>
       </c>
       <c r="K16">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L16">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M16">
-        <v>0.026484</v>
+        <v>0.005069</v>
       </c>
       <c r="N16">
-        <v>0.07945200000000001</v>
+        <v>0.015207</v>
       </c>
       <c r="O16">
-        <v>0.05605506451285177</v>
+        <v>0.004586186191257867</v>
       </c>
       <c r="P16">
-        <v>0.05605506451285178</v>
+        <v>0.004586186191257867</v>
       </c>
       <c r="Q16">
-        <v>0.005196346188</v>
+        <v>0.001630192089666667</v>
       </c>
       <c r="R16">
-        <v>0.046767115692</v>
+        <v>0.014671728807</v>
       </c>
       <c r="S16">
-        <v>0.003049173440618836</v>
+        <v>0.0002396323671644459</v>
       </c>
       <c r="T16">
-        <v>0.003049173440618836</v>
+        <v>0.0002396323671644459</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1464,52 +1464,52 @@
         <v>24</v>
       </c>
       <c r="E17">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F17">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G17">
-        <v>0.196207</v>
+        <v>0.3216003333333333</v>
       </c>
       <c r="H17">
-        <v>0.5886209999999999</v>
+        <v>0.9648009999999999</v>
       </c>
       <c r="I17">
-        <v>0.05439603837972126</v>
+        <v>0.0522509024211076</v>
       </c>
       <c r="J17">
-        <v>0.05439603837972125</v>
+        <v>0.0522509024211076</v>
       </c>
       <c r="K17">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L17">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M17">
-        <v>0.1008886666666667</v>
+        <v>0.4991103333333333</v>
       </c>
       <c r="N17">
-        <v>0.302666</v>
+        <v>1.497331</v>
       </c>
       <c r="O17">
-        <v>0.2135372571596283</v>
+        <v>0.4515709052372154</v>
       </c>
       <c r="P17">
-        <v>0.2135372571596284</v>
+        <v>0.4515709052372153</v>
       </c>
       <c r="Q17">
-        <v>0.01979506262066667</v>
+        <v>0.1605140495701111</v>
       </c>
       <c r="R17">
-        <v>0.178155563586</v>
+        <v>1.444626446131</v>
       </c>
       <c r="S17">
-        <v>0.01161558083595555</v>
+        <v>0.02359498730576097</v>
       </c>
       <c r="T17">
-        <v>0.01161558083595555</v>
+        <v>0.02359498730576097</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1532,16 +1532,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>0.5492193333333333</v>
+        <v>0.918901</v>
       </c>
       <c r="H18">
-        <v>1.647658</v>
+        <v>2.756703</v>
       </c>
       <c r="I18">
-        <v>0.1522644754513596</v>
+        <v>0.1492952634346094</v>
       </c>
       <c r="J18">
-        <v>0.1522644754513596</v>
+        <v>0.1492952634346094</v>
       </c>
       <c r="K18">
         <v>1</v>
@@ -1556,22 +1556,22 @@
         <v>0.183918</v>
       </c>
       <c r="O18">
-        <v>0.1297580344745843</v>
+        <v>0.05546670559109387</v>
       </c>
       <c r="P18">
-        <v>0.1297580344745843</v>
+        <v>0.05546670559109387</v>
       </c>
       <c r="Q18">
-        <v>0.03367044044933333</v>
+        <v>0.056334144706</v>
       </c>
       <c r="R18">
-        <v>0.303033964044</v>
+        <v>0.5070073023539999</v>
       </c>
       <c r="S18">
-        <v>0.01975753905487201</v>
+        <v>0.008280916423072283</v>
       </c>
       <c r="T18">
-        <v>0.01975753905487202</v>
+        <v>0.008280916423072281</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1594,16 +1594,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>0.5492193333333333</v>
+        <v>0.918901</v>
       </c>
       <c r="H19">
-        <v>1.647658</v>
+        <v>2.756703</v>
       </c>
       <c r="I19">
-        <v>0.1522644754513596</v>
+        <v>0.1492952634346094</v>
       </c>
       <c r="J19">
-        <v>0.1522644754513596</v>
+        <v>0.1492952634346094</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1612,28 +1612,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>0.2837853333333334</v>
+        <v>0.5397903333333334</v>
       </c>
       <c r="N19">
-        <v>0.8513560000000001</v>
+        <v>1.619371</v>
       </c>
       <c r="O19">
-        <v>0.6006496438529355</v>
+        <v>0.488376202980433</v>
       </c>
       <c r="P19">
-        <v>0.6006496438529356</v>
+        <v>0.4883762029804329</v>
       </c>
       <c r="Q19">
-        <v>0.1558603915831111</v>
+        <v>0.4960138770903333</v>
       </c>
       <c r="R19">
-        <v>1.402743524248</v>
+        <v>4.464124893813</v>
       </c>
       <c r="S19">
-        <v>0.09145760295131321</v>
+        <v>0.07291225387915803</v>
       </c>
       <c r="T19">
-        <v>0.09145760295131322</v>
+        <v>0.07291225387915802</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1656,46 +1656,46 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>0.5492193333333333</v>
+        <v>0.918901</v>
       </c>
       <c r="H20">
-        <v>1.647658</v>
+        <v>2.756703</v>
       </c>
       <c r="I20">
-        <v>0.1522644754513596</v>
+        <v>0.1492952634346094</v>
       </c>
       <c r="J20">
-        <v>0.1522644754513596</v>
+        <v>0.1492952634346094</v>
       </c>
       <c r="K20">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L20">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M20">
-        <v>0.026484</v>
+        <v>0.005069</v>
       </c>
       <c r="N20">
-        <v>0.07945200000000001</v>
+        <v>0.015207</v>
       </c>
       <c r="O20">
-        <v>0.05605506451285177</v>
+        <v>0.004586186191257867</v>
       </c>
       <c r="P20">
-        <v>0.05605506451285178</v>
+        <v>0.004586186191257867</v>
       </c>
       <c r="Q20">
-        <v>0.014545524824</v>
+        <v>0.004657909169</v>
       </c>
       <c r="R20">
-        <v>0.130909723416</v>
+        <v>0.041921182521</v>
       </c>
       <c r="S20">
-        <v>0.008535194994441499</v>
+        <v>0.0006846958755840112</v>
       </c>
       <c r="T20">
-        <v>0.008535194994441499</v>
+        <v>0.0006846958755840112</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1718,46 +1718,46 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>0.5492193333333333</v>
+        <v>0.918901</v>
       </c>
       <c r="H21">
-        <v>1.647658</v>
+        <v>2.756703</v>
       </c>
       <c r="I21">
-        <v>0.1522644754513596</v>
+        <v>0.1492952634346094</v>
       </c>
       <c r="J21">
-        <v>0.1522644754513596</v>
+        <v>0.1492952634346094</v>
       </c>
       <c r="K21">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L21">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M21">
-        <v>0.1008886666666667</v>
+        <v>0.4991103333333333</v>
       </c>
       <c r="N21">
-        <v>0.302666</v>
+        <v>1.497331</v>
       </c>
       <c r="O21">
-        <v>0.2135372571596283</v>
+        <v>0.4515709052372154</v>
       </c>
       <c r="P21">
-        <v>0.2135372571596284</v>
+        <v>0.4515709052372153</v>
       </c>
       <c r="Q21">
-        <v>0.05541000624755555</v>
+        <v>0.4586329844103333</v>
       </c>
       <c r="R21">
-        <v>0.4986900562279999</v>
+        <v>4.127696859693</v>
       </c>
       <c r="S21">
-        <v>0.0325141384507329</v>
+        <v>0.06741739725679512</v>
       </c>
       <c r="T21">
-        <v>0.0325141384507329</v>
+        <v>0.0674173972567951</v>
       </c>
     </row>
   </sheetData>
